--- a/Методы оптимизации/ЛАБА9.xlsx
+++ b/Методы оптимизации/ЛАБА9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studying2.2\Методы оптимизации\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE81D5D-1B8A-428D-8AF8-CDF65262E05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B833AB07-E677-4860-A91A-8CEDB61407F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{EBC3507D-401B-4743-BD08-6BCF1D4D7928}"/>
   </bookViews>
@@ -50,10 +50,21 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -87,13 +98,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -117,11 +135,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -456,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E41CEB6-734A-4123-9E9D-F079AD26E824}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
@@ -464,7 +483,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -492,7 +511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -509,7 +528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -526,7 +545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>6</v>
       </c>
@@ -537,7 +556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -548,7 +567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -566,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -584,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -602,7 +621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11">
         <f t="shared" ref="B11:C11" si="1">SUM(B8:B10)</f>
         <v>6</v>
@@ -616,7 +635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -625,6 +644,9 @@
         <f>SUMPRODUCT(B2:D4,B8:D10)</f>
         <v>61</v>
       </c>
+    </row>
+    <row r="15" spans="1:7" ht="93.5" x14ac:dyDescent="2.1">
+      <c r="G15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
